--- a/Mifos Automation Excels/Client/4605-Holiday-on-15-Jan-2013-Reschedule-repayment-on-20-Jan-2013-DISBon01JAN-WRITEOFFON15JAN.xlsx
+++ b/Mifos Automation Excels/Client/4605-Holiday-on-15-Jan-2013-Reschedule-repayment-on-20-Jan-2013-DISBon01JAN-WRITEOFFON15JAN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -183,13 +183,19 @@
   </si>
   <si>
     <t>Submit</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Written off date should not be a holiday.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +215,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -285,10 +295,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -318,9 +329,11 @@
     <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -727,10 +740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,6 +790,14 @@
       </c>
       <c r="B5" s="14" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
